--- a/Critical Core of Excel.xlsx
+++ b/Critical Core of Excel.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq31837921/Google Drive/Excel MOOC/001 Course 1 - Beginner/06 Assessments/Practice_Exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA ANALYSIS AND DATA SCIENCE PROJECTS\Excel Skills for Business Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1925130-D330-4302-A55A-6151EA0FDD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="2800" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Time Spent on Excel this Week" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>This challenge will help you revise and consolidate skills you have learned in Week1, but don’t feel limited to these activities, be brave, click things, see what happens!</t>
   </si>
@@ -75,13 +77,49 @@
   </si>
   <si>
     <t>Week 1: Practice Challenge - Taking Charge of Excel</t>
+  </si>
+  <si>
+    <t>Time Spent on Excel this Week</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +139,25 @@
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Dutch801 Rm BT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Dutch801 Rm BT"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,6 +195,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,6 +211,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -169,7 +236,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -228,7 +301,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -542,19 +621,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="68.83203125" customWidth="1"/>
+    <col min="4" max="4" width="68.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="88.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -562,19 +641,19 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E9" s="4">
         <v>1</v>
       </c>
@@ -582,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E10" s="4">
         <v>2</v>
       </c>
@@ -590,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E11" s="4">
         <v>3</v>
       </c>
@@ -598,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E12" s="4">
         <v>4</v>
       </c>
@@ -606,7 +685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
         <v>5</v>
       </c>
@@ -614,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E14" s="4">
         <v>6</v>
       </c>
@@ -622,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E15" s="4">
         <v>7</v>
       </c>
@@ -630,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E16" s="4">
         <v>8</v>
       </c>
@@ -638,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="5:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E17" s="4">
         <v>9</v>
       </c>
@@ -646,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="5:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E18" s="4">
         <v>10</v>
       </c>
@@ -654,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="5:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E19" s="4">
         <v>11</v>
       </c>
@@ -662,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E20" s="4">
         <v>12</v>
       </c>
@@ -670,46 +749,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="5:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="5:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="5:6" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:6" ht="18" x14ac:dyDescent="0.3">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" ht="19" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E33" s="3"/>
     </row>
-    <row r="35" spans="5:5" ht="19" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5" ht="18" x14ac:dyDescent="0.3">
       <c r="E35" s="3"/>
     </row>
   </sheetData>
@@ -719,4 +798,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59A137A-A2CA-4793-B71C-0982224A0E02}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8">
+        <f>SUM(B4:B10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>